--- a/data/data_RCT.xlsx
+++ b/data/data_RCT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijs11/Documents/GitHub/RCT_prediction_Benin/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E860E3C-1F7C-F947-A7CD-7D780B856C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830CB00F-55DE-4341-82F8-6F35EB718E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="17100" windowHeight="21100" xr2:uid="{AE2D431B-7D58-3341-B3EC-BF003FE96E27}"/>
+    <workbookView xWindow="29640" yWindow="500" windowWidth="37560" windowHeight="16660" xr2:uid="{AE2D431B-7D58-3341-B3EC-BF003FE96E27}"/>
   </bookViews>
   <sheets>
     <sheet name="df" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="37">
   <si>
     <t>Location</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Bed_net_n_use_RCT</t>
   </si>
   <si>
-    <t>Malaria_prevalence_per_protocol</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -142,6 +139,15 @@
   </si>
   <si>
     <t>baseline</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Table S13</t>
+  </si>
+  <si>
+    <t>Malaria_prevalence</t>
   </si>
 </sst>
 </file>
@@ -203,9 +209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -349,7 +355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1616C62-5CD7-BC41-B972-EE46516F7F77}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -573,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>43.1</v>
@@ -605,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>40.700000000000003</v>
@@ -637,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>46.5</v>
@@ -672,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="F5" s="1">
         <v>84.8</v>
@@ -713,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F6" s="1">
         <v>87.3</v>
@@ -730,7 +736,7 @@
       <c r="J6" s="1">
         <v>2287</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>1475</v>
       </c>
       <c r="L6">
@@ -754,7 +760,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1">
         <v>88.8</v>
@@ -904,7 +910,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="1">
-        <v>39.9</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="F11" s="1">
         <v>91.2</v>
@@ -945,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="1">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="F12" s="1">
         <v>90</v>
@@ -962,7 +968,7 @@
       <c r="J12" s="1">
         <v>1951</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>1483</v>
       </c>
       <c r="L12">
@@ -1121,7 +1127,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1130,7 +1136,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>45.9</v>
@@ -1153,7 +1159,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1162,7 +1168,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>46.2</v>
@@ -1185,7 +1191,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1194,7 +1200,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>42.7</v>
@@ -1217,7 +1223,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1226,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>42</v>
@@ -1249,7 +1255,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1284,7 +1290,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1319,7 +1325,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1354,7 +1360,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1389,7 +1395,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1401,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="F25" s="1">
         <v>85.4</v>
@@ -1419,7 +1425,7 @@
         <v>2848</v>
       </c>
       <c r="K25">
-        <v>676</v>
+        <v>1123</v>
       </c>
       <c r="L25">
         <v>0.5</v>
@@ -1430,7 +1436,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1442,7 +1448,7 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <v>19.3</v>
+        <v>21.7</v>
       </c>
       <c r="F26" s="1">
         <v>83.1</v>
@@ -1460,7 +1466,7 @@
         <v>2646</v>
       </c>
       <c r="K26">
-        <v>621</v>
+        <v>1069</v>
       </c>
       <c r="L26">
         <v>0.5</v>
@@ -1471,7 +1477,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1483,7 +1489,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="F27" s="1">
         <v>84.9</v>
@@ -1501,7 +1507,7 @@
         <v>3157</v>
       </c>
       <c r="K27">
-        <v>716</v>
+        <v>1126</v>
       </c>
       <c r="L27">
         <v>0.5</v>
@@ -1512,7 +1518,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -1524,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <v>20.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="F28" s="1">
         <v>86.8</v>
@@ -1542,7 +1548,7 @@
         <v>2506</v>
       </c>
       <c r="K28">
-        <v>627</v>
+        <v>1071</v>
       </c>
       <c r="L28">
         <v>0.5</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1565,7 +1571,7 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>50.7</v>
+        <v>52.3</v>
       </c>
       <c r="F29" s="1">
         <v>78.599999999999994</v>
@@ -1583,7 +1589,7 @@
         <v>2606</v>
       </c>
       <c r="K29">
-        <v>651</v>
+        <v>1127</v>
       </c>
       <c r="L29">
         <v>0.5</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -1606,7 +1612,7 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>45.3</v>
+        <v>50.6</v>
       </c>
       <c r="F30" s="1">
         <v>75.099999999999994</v>
@@ -1624,7 +1630,7 @@
         <v>2124</v>
       </c>
       <c r="K30">
-        <v>541</v>
+        <v>1153</v>
       </c>
       <c r="L30">
         <v>0.5</v>
@@ -1635,7 +1641,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1647,7 +1653,7 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>38.700000000000003</v>
+        <v>40.9</v>
       </c>
       <c r="F31" s="1">
         <v>74.8</v>
@@ -1665,7 +1671,7 @@
         <v>2676</v>
       </c>
       <c r="K31">
-        <v>656</v>
+        <v>1246</v>
       </c>
       <c r="L31">
         <v>0.5</v>
@@ -1676,7 +1682,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -1688,7 +1694,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>40.9</v>
+        <v>43.3</v>
       </c>
       <c r="F32" s="1">
         <v>74.400000000000006</v>
@@ -1706,7 +1712,7 @@
         <v>1885</v>
       </c>
       <c r="K32">
-        <v>469</v>
+        <v>1160</v>
       </c>
       <c r="L32">
         <v>0.5</v>
@@ -1717,7 +1723,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1729,7 +1735,7 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <v>43.9</v>
+        <v>45.8</v>
       </c>
       <c r="F33" s="1">
         <v>82.6</v>
@@ -1747,7 +1753,7 @@
         <v>2488</v>
       </c>
       <c r="K33">
-        <v>569</v>
+        <v>1199</v>
       </c>
       <c r="L33">
         <v>0.5</v>
@@ -1758,7 +1764,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -1770,7 +1776,7 @@
         <v>24</v>
       </c>
       <c r="E34">
-        <v>34.200000000000003</v>
+        <v>37.5</v>
       </c>
       <c r="F34" s="1">
         <v>77.599999999999994</v>
@@ -1788,7 +1794,7 @@
         <v>2087</v>
       </c>
       <c r="K34">
-        <v>441</v>
+        <v>1258</v>
       </c>
       <c r="L34">
         <v>0.5</v>
@@ -1799,7 +1805,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1811,7 +1817,7 @@
         <v>24</v>
       </c>
       <c r="E35">
-        <v>21.9</v>
+        <v>25.6</v>
       </c>
       <c r="F35" s="1">
         <v>77</v>
@@ -1829,7 +1835,7 @@
         <v>2585</v>
       </c>
       <c r="K35">
-        <v>598</v>
+        <v>1272</v>
       </c>
       <c r="L35">
         <v>0.5</v>
@@ -1840,7 +1846,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -1852,7 +1858,7 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>39</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="F36" s="1">
         <v>76.5</v>
@@ -1870,12 +1876,194 @@
         <v>1534</v>
       </c>
       <c r="K36">
-        <v>356</v>
+        <v>1259</v>
       </c>
       <c r="L36">
         <v>0.5</v>
       </c>
       <c r="M36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>28.4</v>
+      </c>
+      <c r="K37">
+        <v>1485</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>22.5</v>
+      </c>
+      <c r="K38">
+        <v>1469</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>26.2</v>
+      </c>
+      <c r="K39">
+        <v>1474</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>956</v>
+      </c>
+      <c r="L40">
+        <v>0.5</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>42.4</v>
+      </c>
+      <c r="K41">
+        <v>1004</v>
+      </c>
+      <c r="L41">
+        <v>0.5</v>
+      </c>
+      <c r="M41" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>41.7</v>
+      </c>
+      <c r="K42">
+        <v>1045</v>
+      </c>
+      <c r="L42">
+        <v>0.5</v>
+      </c>
+      <c r="M42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>49.2</v>
+      </c>
+      <c r="K43">
+        <v>992</v>
+      </c>
+      <c r="L43">
+        <v>0.5</v>
+      </c>
+      <c r="M43" s="1">
         <v>14</v>
       </c>
     </row>
@@ -1886,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE5370B-DF4A-4542-9913-90A6B4D6CF7C}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1906,7 +2094,7 @@
     <col min="15" max="15" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1917,34 +2105,37 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1955,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>993</v>
@@ -1981,8 +2172,11 @@
       <c r="L2">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1993,7 +2187,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1087</v>
@@ -2020,7 +2214,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2031,7 +2225,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1296</v>
@@ -2058,9 +2252,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2069,7 +2263,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2091,9 +2285,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2102,7 +2296,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2124,9 +2318,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -2135,7 +2329,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2157,9 +2351,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -2168,7 +2362,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
